--- a/lista-2/tcp/client/tcp_balance.xlsx
+++ b/lista-2/tcp/client/tcp_balance.xlsx
@@ -397,5002 +397,5002 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>0.9127099999999999</v>
+        <v>0.853406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.7179899999999999</v>
+        <v>0.789065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>0.8755</v>
+        <v>0.832567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>0.695856</v>
+        <v>0.49920300000000006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>0.457579</v>
+        <v>0.533747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.3338899999999998</v>
+        <v>2.463075</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.884811</v>
+        <v>0.796089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.46280099999999996</v>
+        <v>0.718303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>0.79116</v>
+        <v>0.56824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.45989199999999997</v>
+        <v>1.790637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>0.39525299999999997</v>
+        <v>0.36968100000000004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>0.65844</v>
+        <v>0.44771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>1.082306</v>
+        <v>1.0344250000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>1.446853</v>
+        <v>0.763741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>0.5144299999999999</v>
+        <v>0.546875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>3.050904</v>
+        <v>0.83248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>0.963698</v>
+        <v>1.064967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>1.0214880000000002</v>
+        <v>0.489389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>0.600355</v>
+        <v>0.8377089999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>0.42760299999999996</v>
+        <v>0.76833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>0.617215</v>
+        <v>1.1209419999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>0.957005</v>
+        <v>1.714312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>1.093863</v>
+        <v>0.784153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>0.765694</v>
+        <v>0.758993</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>1.7526950000000001</v>
+        <v>0.6989350000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>0.5140290000000001</v>
+        <v>0.964598</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>0.929744</v>
+        <v>0.700328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>0.532403</v>
+        <v>1.267312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>0.6332679999999999</v>
+        <v>1.396256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>0.7674</v>
+        <v>0.735222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>1.3826699999999998</v>
+        <v>0.767849</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>1.145509</v>
+        <v>0.791076</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>0.615937</v>
+        <v>2.6505769999999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>0.796846</v>
+        <v>0.819315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>0.6487259999999999</v>
+        <v>0.590302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>2.06636</v>
+        <v>1.2038280000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>0.8713059999999999</v>
+        <v>0.82077</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>0.794345</v>
+        <v>0.779532</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>0.589997</v>
+        <v>0.44819499999999995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>6.865212</v>
+        <v>1.108768</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>1.108594</v>
+        <v>0.8559699999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>0.512331</v>
+        <v>0.449702</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>0.546132</v>
+        <v>1.279328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>1.011303</v>
+        <v>0.70929</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>0.680702</v>
+        <v>0.8787849999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>1.13572</v>
+        <v>0.73575</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>0.8428300000000001</v>
+        <v>1.26007</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>0.757647</v>
+        <v>0.9885219999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>0.651717</v>
+        <v>0.757105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>1.650423</v>
+        <v>1.20242</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>0.606378</v>
+        <v>0.5635129999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>0.6624979999999999</v>
+        <v>1.106973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>0.997237</v>
+        <v>0.6920270000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>0.444891</v>
+        <v>1.248397</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>1.050311</v>
+        <v>1.093486</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>0.8260109999999999</v>
+        <v>0.932268</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>1.119878</v>
+        <v>0.780153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>1.617156</v>
+        <v>0.6842429999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>0.69053</v>
+        <v>2.475295</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>0.840189</v>
+        <v>0.928675</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>1.423209</v>
+        <v>0.813568</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>0.45298099999999997</v>
+        <v>0.7518549999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>0.702135</v>
+        <v>1.2497090000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>3.508461</v>
+        <v>0.806931</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>0.684966</v>
+        <v>0.756027</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>0.401903</v>
+        <v>1.1941689999999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>0.40662400000000004</v>
+        <v>2.341253</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>0.7114069999999999</v>
+        <v>0.6948749999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>0.931237</v>
+        <v>0.772435</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>0.9746130000000001</v>
+        <v>1.363516</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>0.894077</v>
+        <v>0.8394090000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>0.8646469999999999</v>
+        <v>0.7396870000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>1.147323</v>
+        <v>1.247487</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>0.727395</v>
+        <v>2.733413</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>0.9874860000000001</v>
+        <v>0.8096530000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>0.572082</v>
+        <v>0.45909500000000003</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>0.704277</v>
+        <v>1.1257629999999998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>1.1117</v>
+        <v>0.853913</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>1.4553260000000001</v>
+        <v>0.727425</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>0.760002</v>
+        <v>0.783657</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>0.958915</v>
+        <v>1.30288</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>0.79442</v>
+        <v>0.723935</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>0.9536</v>
+        <v>0.6818230000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>0.787188</v>
+        <v>0.682585</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>0.541803</v>
+        <v>1.206698</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>0.761238</v>
+        <v>2.4488000000000003</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>0.5699449999999999</v>
+        <v>0.9795050000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>0.558949</v>
+        <v>0.76134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>0.842235</v>
+        <v>0.7514419999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>0.809492</v>
+        <v>0.565271</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>1.060575</v>
+        <v>0.9422229999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>0.864992</v>
+        <v>0.710645</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>0.955786</v>
+        <v>0.67723</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>0.48708300000000004</v>
+        <v>1.174665</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>0.9505899999999999</v>
+        <v>0.780477</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>0.663081</v>
+        <v>0.978341</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>1.93658</v>
+        <v>0.46580200000000005</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>0.429613</v>
+        <v>0.99661</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>1.0188840000000001</v>
+        <v>1.2672899999999998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>0.686611</v>
+        <v>0.530172</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>0.473729</v>
+        <v>0.70312</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>0.605498</v>
+        <v>0.422129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>1.386437</v>
+        <v>0.882452</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>2.554528</v>
+        <v>0.437791</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>1.0522140000000002</v>
+        <v>0.941767</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>0.6175350000000001</v>
+        <v>2.459499</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>1.0149519999999999</v>
+        <v>0.487014</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>0.556263</v>
+        <v>0.826887</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>0.8739969999999999</v>
+        <v>0.711788</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>0.872322</v>
+        <v>1.471487</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>0.96847</v>
+        <v>0.763963</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>1.405234</v>
+        <v>0.75814</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>0.5396799999999999</v>
+        <v>1.1459219999999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>0.567598</v>
+        <v>0.505115</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>0.7305039999999999</v>
+        <v>0.78551</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>0.7855</v>
+        <v>0.5061030000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>0.780138</v>
+        <v>0.9794999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>0.517914</v>
+        <v>0.72979</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>0.800218</v>
+        <v>0.7249319999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>1.048965</v>
+        <v>0.9678300000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>0.767853</v>
+        <v>0.47169900000000003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>0.578658</v>
+        <v>0.613583</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>0.5001749999999999</v>
+        <v>0.8098820000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>0.943863</v>
+        <v>0.9377059999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>0.810333</v>
+        <v>2.000642</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>0.416795</v>
+        <v>0.875158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>1.080805</v>
+        <v>0.766105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>1.11015</v>
+        <v>0.80833</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>0.450666</v>
+        <v>0.54213</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>0.46347700000000003</v>
+        <v>0.6252369999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>0.800913</v>
+        <v>0.5395369999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>0.476437</v>
+        <v>0.718821</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>0.731979</v>
+        <v>2.16153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>0.421563</v>
+        <v>0.523582</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>0.828386</v>
+        <v>0.776671</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>0.818804</v>
+        <v>0.490194</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>0.4964</v>
+        <v>2.20711</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>0.469763</v>
+        <v>0.7192649999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>1.07416</v>
+        <v>0.748242</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>0.71699</v>
+        <v>1.121777</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>2.21198</v>
+        <v>1.540715</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>0.8706299999999999</v>
+        <v>0.45705300000000004</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>0.6869839999999999</v>
+        <v>0.731143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>0.847492</v>
+        <v>0.650268</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>0.5102340000000001</v>
+        <v>1.88214</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>0.550474</v>
+        <v>0.68601</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>0.5777300000000001</v>
+        <v>0.8318000000000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>0.695257</v>
+        <v>0.7446459999999999</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>1.3361200000000002</v>
+        <v>1.427727</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>0.563552</v>
+        <v>1.580371</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>0.9774339999999999</v>
+        <v>0.8057799999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>0.522243</v>
+        <v>0.785142</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>0.798897</v>
+        <v>0.6839240000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>0.80253</v>
+        <v>1.932689</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>0.918527</v>
+        <v>0.7582930000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>0.84947</v>
+        <v>0.6584800000000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>0.431155</v>
+        <v>0.585009</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>0.811095</v>
+        <v>1.169394</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>0.7798940000000001</v>
+        <v>0.5908680000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>1.06133</v>
+        <v>0.739445</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>0.442737</v>
+        <v>0.469988</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>0.8719560000000001</v>
+        <v>0.855284</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>0.746953</v>
+        <v>0.546924</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>0.645932</v>
+        <v>1.021475</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>0.537741</v>
+        <v>1.81884</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>0.433168</v>
+        <v>0.539263</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>0.845202</v>
+        <v>0.8169609999999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>0.943641</v>
+        <v>0.9348829999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>0.868657</v>
+        <v>1.668426</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>0.6712009999999999</v>
+        <v>0.6610849999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>1.454875</v>
+        <v>0.44298299999999996</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>0.802162</v>
+        <v>1.1535440000000001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>0.730905</v>
+        <v>1.206992</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>0.478526</v>
+        <v>0.732603</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>0.47807999999999995</v>
+        <v>0.67188</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>0.677562</v>
+        <v>0.7045079999999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>0.49431200000000003</v>
+        <v>2.907477</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>0.702455</v>
+        <v>0.855465</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>0.869815</v>
+        <v>0.607716</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>3.171775</v>
+        <v>0.7332420000000001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>1.1417059999999999</v>
+        <v>0.973172</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>0.706018</v>
+        <v>2.840147</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>0.41354199999999997</v>
+        <v>0.872808</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>0.5450980000000001</v>
+        <v>0.782997</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>0.5785509999999999</v>
+        <v>1.0451650000000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>0.927462</v>
+        <v>1.006088</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>1.2010239999999999</v>
+        <v>0.690779</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>0.728885</v>
+        <v>0.690955</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>0.934826</v>
+        <v>0.65247</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>0.5271870000000001</v>
+        <v>1.669368</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>1.031755</v>
+        <v>0.705985</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>0.5127229999999999</v>
+        <v>1.37269</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>0.6177389999999999</v>
+        <v>0.857662</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>0.7434499999999999</v>
+        <v>0.762437</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>0.661065</v>
+        <v>0.750737</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>0.735745</v>
+        <v>1.426978</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>0.89702</v>
+        <v>0.816171</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>0.8202860000000001</v>
+        <v>0.599662</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>0.6106520000000001</v>
+        <v>0.955728</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>0.420008</v>
+        <v>0.824953</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>0.724655</v>
+        <v>0.728874</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>0.836549</v>
+        <v>0.912389</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>0.768857</v>
+        <v>0.712767</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>1.474377</v>
+        <v>2.232936</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>0.49072000000000005</v>
+        <v>0.79898</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>0.783434</v>
+        <v>0.639784</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>0.5207579999999999</v>
+        <v>0.9030699999999999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>1.219999</v>
+        <v>0.50552</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>3.7510909999999997</v>
+        <v>0.737669</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>0.533452</v>
+        <v>0.45206100000000005</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>0.843681</v>
+        <v>0.8128299999999999</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>0.5940259999999999</v>
+        <v>0.83303</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>0.445245</v>
+        <v>0.711863</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>0.9119189999999999</v>
+        <v>0.907472</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>0.9369470000000001</v>
+        <v>0.7085769999999999</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>0.549852</v>
+        <v>0.8324400000000001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>0.5136189999999999</v>
+        <v>0.398243</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>0.625261</v>
+        <v>1.371735</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>1.642011</v>
+        <v>1.304181</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>0.8230120000000001</v>
+        <v>0.685118</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>0.57532</v>
+        <v>0.9758479999999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>0.741916</v>
+        <v>0.516656</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>1.044038</v>
+        <v>2.663476</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>2.445561</v>
+        <v>0.9028200000000001</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>0.936512</v>
+        <v>0.497734</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>0.7626240000000001</v>
+        <v>0.813207</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>0.627651</v>
+        <v>0.424011</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>2.2248569999999996</v>
+        <v>0.85141</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>0.917017</v>
+        <v>0.672307</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>0.876162</v>
+        <v>0.544587</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>0.8241919999999999</v>
+        <v>2.269205</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>0.921558</v>
+        <v>0.5305639999999999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>1.211842</v>
+        <v>0.908775</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>0.819404</v>
+        <v>0.843917</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>0.427997</v>
+        <v>1.9076099999999998</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>0.693486</v>
+        <v>0.378222</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>0.5321809999999999</v>
+        <v>0.73624</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>2.4147700000000003</v>
+        <v>0.9879699999999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>0.8575349999999999</v>
+        <v>0.46974499999999997</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>0.968604</v>
+        <v>0.895651</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>0.563673</v>
+        <v>0.737217</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>0.512477</v>
+        <v>2.270223</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>0.465067</v>
+        <v>1.127454</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>0.59149</v>
+        <v>0.42809800000000003</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>1.088253</v>
+        <v>0.9962899999999999</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>0.5485530000000001</v>
+        <v>0.458784</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>0.49148</v>
+        <v>0.684326</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>1.23065</v>
+        <v>0.7461030000000001</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>0.993858</v>
+        <v>2.251277</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>0.5162990000000001</v>
+        <v>0.814067</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>0.622376</v>
+        <v>0.684507</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>1.4118449999999998</v>
+        <v>0.646255</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>1.009481</v>
+        <v>0.66044</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>0.46507</v>
+        <v>0.832793</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>0.7535200000000001</v>
+        <v>0.639582</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>0.73134</v>
+        <v>1.202085</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>1.775103</v>
+        <v>0.9685320000000001</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>0.6350159999999999</v>
+        <v>0.695476</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
-        <v>1.645186</v>
+        <v>0.851387</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
-        <v>0.671865</v>
+        <v>0.49496399999999996</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
-        <v>0.9663649999999999</v>
+        <v>2.465316</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
-        <v>0.601104</v>
+        <v>0.537289</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
-        <v>0.43072699999999997</v>
+        <v>0.505026</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
-        <v>0.724025</v>
+        <v>0.8764470000000001</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
-        <v>0.593902</v>
+        <v>0.5735830000000001</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
-        <v>0.77056</v>
+        <v>0.817734</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>0.596832</v>
+        <v>0.45177500000000004</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1">
-        <v>0.83077</v>
+        <v>1.4335470000000001</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1">
-        <v>0.500496</v>
+        <v>0.842388</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>1.002217</v>
+        <v>0.7249300000000001</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
-        <v>0.5416489999999999</v>
+        <v>0.7964359999999999</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1">
-        <v>0.8010740000000001</v>
+        <v>0.6106360000000001</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>0.8855879999999999</v>
+        <v>0.786638</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
-        <v>1.09095</v>
+        <v>0.424462</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>0.406714</v>
+        <v>1.342382</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
-        <v>0.7552089999999999</v>
+        <v>1.818871</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
-        <v>0.804658</v>
+        <v>0.518221</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
-        <v>0.7634500000000001</v>
+        <v>0.849352</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
-        <v>0.42988</v>
+        <v>0.6970630000000001</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>0.412141</v>
+        <v>2.2801430000000003</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>0.581627</v>
+        <v>0.680073</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>0.797053</v>
+        <v>0.70013</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
-        <v>0.988371</v>
+        <v>0.824915</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>0.5832040000000001</v>
+        <v>0.730947</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>0.681406</v>
+        <v>0.803149</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>0.857164</v>
+        <v>0.845342</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>2.03182</v>
+        <v>1.9576559999999998</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>0.627818</v>
+        <v>0.656262</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>0.370248</v>
+        <v>0.489281</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
-        <v>1.0035459999999998</v>
+        <v>0.9969200000000001</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>0.5846</v>
+        <v>0.41719100000000003</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
-        <v>0.429936</v>
+        <v>0.8545029999999999</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
-        <v>0.701126</v>
+        <v>0.44449099999999997</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
-        <v>1.19776</v>
+        <v>0.740842</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
-        <v>0.6566299999999999</v>
+        <v>0.9621299999999999</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
-        <v>1.281522</v>
+        <v>0.681303</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
-        <v>0.760953</v>
+        <v>1.134647</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
-        <v>1.535064</v>
+        <v>0.414791</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
-        <v>0.611194</v>
+        <v>0.8665349999999999</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
-        <v>0.457736</v>
+        <v>0.711548</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
-        <v>0.9808</v>
+        <v>0.9985250000000001</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1">
-        <v>0.9542930000000001</v>
+        <v>1.24434</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>0.6214630000000001</v>
+        <v>0.59606</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>0.402791</v>
+        <v>0.651472</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>0.540957</v>
+        <v>0.7523799999999999</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
-        <v>0.88711</v>
+        <v>1.319457</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>0.576208</v>
+        <v>0.754672</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>0.46641</v>
+        <v>0.469948</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1">
-        <v>1.060662</v>
+        <v>1.089062</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1">
-        <v>0.938956</v>
+        <v>0.551685</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
-        <v>1.168393</v>
+        <v>0.876722</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
-        <v>0.6252070000000001</v>
+        <v>0.751992</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
-        <v>0.707234</v>
+        <v>1.439266</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
-        <v>0.620546</v>
+        <v>0.642726</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
-        <v>0.912956</v>
+        <v>0.75766</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1">
-        <v>0.42469399999999996</v>
+        <v>1.104522</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1">
-        <v>1.0356740000000002</v>
+        <v>0.554622</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1">
-        <v>0.941218</v>
+        <v>0.85419</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
-        <v>1.040132</v>
+        <v>0.764824</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
-        <v>1.024733</v>
+        <v>2.248732</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>1.256876</v>
+        <v>0.833121</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>0.70708</v>
+        <v>0.6131759999999999</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>4.314888</v>
+        <v>1.1000240000000001</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
-        <v>8.48643</v>
+        <v>1.303875</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
-        <v>6.2895900000000005</v>
+        <v>0.875015</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
-        <v>2.49763</v>
+        <v>0.940339</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
-        <v>6.59983</v>
+        <v>0.8096289999999999</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
-        <v>2.1006169999999997</v>
+        <v>1.620832</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
-        <v>0.435996</v>
+        <v>0.44448000000000004</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
-        <v>0.8150930000000001</v>
+        <v>0.785062</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
-        <v>6.709805</v>
+        <v>0.518209</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
-        <v>1.221452</v>
+        <v>0.873054</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>0.557461</v>
+        <v>0.47942599999999996</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
-        <v>0.6939719999999999</v>
+        <v>1.927942</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
-        <v>0.430475</v>
+        <v>0.924008</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
-        <v>0.591772</v>
+        <v>0.6762400000000001</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
-        <v>0.60509</v>
+        <v>0.966474</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>0.38004899999999997</v>
+        <v>1.087399</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
-        <v>0.72239</v>
+        <v>0.67948</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
-        <v>0.822303</v>
+        <v>0.740284</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
-        <v>0.907218</v>
+        <v>1.2866760000000002</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
-        <v>0.707095</v>
+        <v>0.642648</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
-        <v>0.43968799999999997</v>
+        <v>0.670928</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
-        <v>8.238518000000001</v>
+        <v>1.149046</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
-        <v>0.537739</v>
+        <v>1.0282200000000001</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
-        <v>0.9975400000000001</v>
+        <v>0.707894</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
-        <v>0.478786</v>
+        <v>0.6587000000000001</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
-        <v>0.924984</v>
+        <v>0.813692</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>1.006823</v>
+        <v>0.72145</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>0.546207</v>
+        <v>0.453201</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
-        <v>1.009304</v>
+        <v>1.172002</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
-        <v>0.71068</v>
+        <v>0.626768</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
-        <v>0.770445</v>
+        <v>0.7342759999999999</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1">
-        <v>1.8621320000000001</v>
+        <v>0.42472400000000005</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1">
-        <v>0.6044400000000001</v>
+        <v>1.6590719999999999</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1">
-        <v>0.43330199999999996</v>
+        <v>1.103144</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1">
-        <v>0.764225</v>
+        <v>0.581436</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1">
-        <v>0.823172</v>
+        <v>0.7335659999999999</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1">
-        <v>1.125947</v>
+        <v>0.464379</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1">
-        <v>0.40691099999999997</v>
+        <v>0.718722</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1">
-        <v>0.710697</v>
+        <v>0.71724</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1">
-        <v>0.9310660000000001</v>
+        <v>0.99792</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1">
-        <v>0.590554</v>
+        <v>0.977204</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1">
-        <v>0.424761</v>
+        <v>0.479153</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1">
-        <v>0.40651499999999996</v>
+        <v>0.727761</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1">
-        <v>1.716114</v>
+        <v>0.6481399999999999</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1">
-        <v>0.47558300000000003</v>
+        <v>1.288778</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>1.1051170000000001</v>
+        <v>0.65585</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1">
-        <v>1.139917</v>
+        <v>0.645002</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1">
-        <v>0.506383</v>
+        <v>0.811196</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1">
-        <v>0.8370489999999999</v>
+        <v>1.639298</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1">
-        <v>1.422722</v>
+        <v>0.723944</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1">
-        <v>1.266885</v>
+        <v>0.794659</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1">
-        <v>1.443689</v>
+        <v>0.649494</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1">
-        <v>0.5529419999999999</v>
+        <v>2.568384</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1">
-        <v>0.545833</v>
+        <v>0.734954</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1">
-        <v>1.923238</v>
+        <v>0.5095040000000001</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1">
-        <v>5.901358</v>
+        <v>0.420921</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1">
-        <v>1.473771</v>
+        <v>0.5505049999999999</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1">
-        <v>12.431695</v>
+        <v>0.402069</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1">
-        <v>7.590897</v>
+        <v>0.40331900000000004</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1">
-        <v>0.676461</v>
+        <v>0.433853</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1">
-        <v>1.329656</v>
+        <v>0.379757</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1">
-        <v>1.677114</v>
+        <v>0.41513900000000004</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1">
-        <v>0.509127</v>
+        <v>0.441796</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1">
-        <v>0.7866989999999999</v>
+        <v>0.5419799999999999</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1">
-        <v>0.546312</v>
+        <v>0.676984</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1">
-        <v>0.598042</v>
+        <v>0.937309</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1">
-        <v>7.466732</v>
+        <v>2.4322459999999997</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1">
-        <v>1.443117</v>
+        <v>0.47639299999999996</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1">
-        <v>0.429882</v>
+        <v>0.44443</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1">
-        <v>3.744145</v>
+        <v>0.566683</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1">
-        <v>0.439855</v>
+        <v>0.774178</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1">
-        <v>0.768406</v>
+        <v>0.774023</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1">
-        <v>0.690923</v>
+        <v>0.47605</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1">
-        <v>0.639506</v>
+        <v>0.8086099999999999</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1">
-        <v>0.38860799999999995</v>
+        <v>0.625756</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1">
-        <v>0.589506</v>
+        <v>0.406899</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1">
-        <v>0.5332359999999999</v>
+        <v>1.219486</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1">
-        <v>1.69423</v>
+        <v>0.767467</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1">
-        <v>0.687026</v>
+        <v>0.689369</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1">
-        <v>4.142872</v>
+        <v>0.545706</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1">
-        <v>2.977833</v>
+        <v>1.546968</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1">
-        <v>0.675516</v>
+        <v>0.6088</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1">
-        <v>1.023488</v>
+        <v>0.6231599999999999</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1">
-        <v>0.507267</v>
+        <v>1.219662</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1">
-        <v>0.527006</v>
+        <v>0.6795829999999999</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1">
-        <v>0.413478</v>
+        <v>0.481257</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1">
-        <v>0.524258</v>
+        <v>0.61616</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1">
-        <v>0.897197</v>
+        <v>1.146532</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1">
-        <v>1.3130959999999998</v>
+        <v>0.7886679999999999</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1">
-        <v>3.177298</v>
+        <v>0.906554</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1">
-        <v>1.682982</v>
+        <v>0.617824</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1">
-        <v>0.512497</v>
+        <v>1.125788</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1">
-        <v>0.745606</v>
+        <v>0.693994</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1">
-        <v>0.557356</v>
+        <v>0.444185</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1">
-        <v>0.836814</v>
+        <v>0.372571</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1">
-        <v>4.385962</v>
+        <v>1.352655</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1">
-        <v>1.84056</v>
+        <v>0.783887</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1">
-        <v>0.57392</v>
+        <v>0.622886</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1">
-        <v>0.5625060000000001</v>
+        <v>0.49903100000000006</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1">
-        <v>0.90235</v>
+        <v>1.54451</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1">
-        <v>0.46422599999999997</v>
+        <v>0.6991639999999999</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1">
-        <v>0.617918</v>
+        <v>0.699204</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1">
-        <v>0.840454</v>
+        <v>1.089678</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1">
-        <v>1.243501</v>
+        <v>0.7363219999999999</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1">
-        <v>0.414997</v>
+        <v>0.43143899999999996</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1">
-        <v>1.904977</v>
+        <v>0.34651499999999996</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1">
-        <v>0.498796</v>
+        <v>2.0775379999999997</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1">
-        <v>0.631277</v>
+        <v>0.725003</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1">
-        <v>3.809165</v>
+        <v>0.64097</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1">
-        <v>0.850792</v>
+        <v>0.62102</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1">
-        <v>0.7196859999999999</v>
+        <v>2.22358</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1">
-        <v>0.398225</v>
+        <v>0.428941</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1">
-        <v>0.739664</v>
+        <v>0.6542979999999999</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1">
-        <v>0.785964</v>
+        <v>1.4003139999999998</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1">
-        <v>0.581685</v>
+        <v>0.802759</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1">
-        <v>0.962786</v>
+        <v>0.553758</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1">
-        <v>0.672484</v>
+        <v>0.6839580000000001</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1">
-        <v>0.659712</v>
+        <v>1.401298</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1">
-        <v>3.0544000000000002</v>
+        <v>0.599778</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1">
-        <v>0.59278</v>
+        <v>0.781086</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1">
-        <v>0.399202</v>
+        <v>0.581311</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1">
-        <v>0.756402</v>
+        <v>1.531568</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1">
-        <v>0.7190099999999999</v>
+        <v>0.5431229999999999</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1">
-        <v>0.56888</v>
+        <v>0.431349</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1">
-        <v>0.482285</v>
+        <v>1.108856</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1">
-        <v>0.5559799999999999</v>
+        <v>0.687566</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1">
-        <v>0.947488</v>
+        <v>0.477454</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1">
-        <v>6.527561</v>
+        <v>0.76435</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1">
-        <v>0.4667</v>
+        <v>0.90106</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1">
-        <v>0.540456</v>
+        <v>0.842145</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1">
-        <v>1.476608</v>
+        <v>0.74785</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1">
-        <v>0.456973</v>
+        <v>0.494265</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1">
-        <v>0.5419350000000001</v>
+        <v>0.698453</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1">
-        <v>0.985217</v>
+        <v>0.717254</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1">
-        <v>1.018582</v>
+        <v>0.44591200000000003</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1">
-        <v>0.725878</v>
+        <v>0.395232</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1">
-        <v>0.773883</v>
+        <v>0.661543</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1">
-        <v>0.915876</v>
+        <v>0.7389</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1">
-        <v>0.60751</v>
+        <v>0.538913</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1">
-        <v>0.939307</v>
+        <v>0.7397140000000001</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1">
-        <v>0.732344</v>
+        <v>1.32902</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1">
-        <v>1.932755</v>
+        <v>0.535082</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1">
-        <v>1.518481</v>
+        <v>0.618289</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1">
-        <v>0.718248</v>
+        <v>1.524</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1">
-        <v>5.598</v>
+        <v>0.613615</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1">
-        <v>0.400069</v>
+        <v>0.5159229999999999</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1">
-        <v>1.093929</v>
+        <v>0.6400950000000001</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1">
-        <v>0.436643</v>
+        <v>1.8041260000000001</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1">
-        <v>1.0382900000000002</v>
+        <v>0.478264</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1">
-        <v>0.527624</v>
+        <v>0.40616399999999997</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1">
-        <v>0.819468</v>
+        <v>1.1508200000000002</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1">
-        <v>0.772147</v>
+        <v>0.585306</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1">
-        <v>0.918663</v>
+        <v>0.3568</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1">
-        <v>0.388652</v>
+        <v>1.31819</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1">
-        <v>0.5861959999999999</v>
+        <v>0.783218</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1">
-        <v>6.237373</v>
+        <v>0.508063</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1">
-        <v>1.742513</v>
+        <v>0.9237730000000001</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1">
-        <v>1.112393</v>
+        <v>2.1788939999999997</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1">
-        <v>0.849231</v>
+        <v>0.45354500000000003</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1">
-        <v>0.552416</v>
+        <v>0.846059</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1">
-        <v>0.424164</v>
+        <v>0.8638880000000001</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1">
-        <v>1.4044560000000001</v>
+        <v>0.70918</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1">
-        <v>0.455543</v>
+        <v>0.67681</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1">
-        <v>6.965928</v>
+        <v>0.841522</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1">
-        <v>5.162685</v>
+        <v>2.33577</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1">
-        <v>0.591216</v>
+        <v>0.44769</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1">
-        <v>2.636806</v>
+        <v>0.6425839999999999</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1">
-        <v>2.633822</v>
+        <v>0.46275</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1">
-        <v>0.687757</v>
+        <v>1.100055</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1">
-        <v>0.489196</v>
+        <v>0.629288</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1">
-        <v>0.785337</v>
+        <v>0.6270880000000001</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1">
-        <v>0.688074</v>
+        <v>0.9206099999999999</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1">
-        <v>0.564764</v>
+        <v>0.5225059999999999</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1">
-        <v>0.718529</v>
+        <v>0.863743</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1">
-        <v>0.759602</v>
+        <v>0.64093</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1">
-        <v>0.726324</v>
+        <v>1.029306</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1">
-        <v>0.8589589999999999</v>
+        <v>0.620822</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1">
-        <v>0.9768800000000001</v>
+        <v>0.593552</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1">
-        <v>0.820772</v>
+        <v>1.0097699999999998</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1">
-        <v>1.1480730000000001</v>
+        <v>1.111476</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1">
-        <v>0.48288200000000003</v>
+        <v>0.419501</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1">
-        <v>0.907733</v>
+        <v>0.854432</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1">
-        <v>0.665525</v>
+        <v>0.659486</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1">
-        <v>0.9291780000000001</v>
+        <v>0.8768429999999999</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1">
-        <v>0.887145</v>
+        <v>0.42526</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1">
-        <v>0.68379</v>
+        <v>0.989752</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1">
-        <v>2.619582</v>
+        <v>1.072315</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1">
-        <v>0.448824</v>
+        <v>0.49193999999999993</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1">
-        <v>0.692283</v>
+        <v>0.803819</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1">
-        <v>3.230166</v>
+        <v>0.583711</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1">
-        <v>2.8794139999999997</v>
+        <v>0.765222</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1">
-        <v>2.59043</v>
+        <v>0.6486919999999999</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1">
-        <v>0.632328</v>
+        <v>0.874686</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1">
-        <v>0.527212</v>
+        <v>0.841852</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1">
-        <v>0.70601</v>
+        <v>0.8398150000000001</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1">
-        <v>0.7058019999999999</v>
+        <v>0.6810320000000001</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1">
-        <v>0.8510949999999999</v>
+        <v>0.538769</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1">
-        <v>0.6383759999999999</v>
+        <v>0.941377</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1">
-        <v>0.5215839999999999</v>
+        <v>0.436332</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1">
-        <v>0.875981</v>
+        <v>0.792648</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1">
-        <v>1.030333</v>
+        <v>0.436931</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1">
-        <v>0.815459</v>
+        <v>0.789308</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1">
-        <v>1.188865</v>
+        <v>0.462121</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1">
-        <v>1.214889</v>
+        <v>1.146128</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1">
-        <v>4.047321</v>
+        <v>1.099836</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1">
-        <v>0.607088</v>
+        <v>0.703794</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1">
-        <v>0.8901399999999999</v>
+        <v>0.6250020000000001</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1">
-        <v>0.6526150000000001</v>
+        <v>1.3808200000000002</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1">
-        <v>0.73414</v>
+        <v>0.6833170000000001</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1">
-        <v>0.889614</v>
+        <v>0.810396</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1">
-        <v>1.058903</v>
+        <v>0.801095</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1">
-        <v>1.085003</v>
+        <v>2.014844</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1">
-        <v>0.64523</v>
+        <v>0.720372</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1">
-        <v>1.501152</v>
+        <v>0.5024460000000001</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1">
-        <v>4.96288</v>
+        <v>0.68047</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1">
-        <v>0.630766</v>
+        <v>0.41750400000000004</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1">
-        <v>0.35374300000000003</v>
+        <v>0.80315</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1">
-        <v>0.48155000000000003</v>
+        <v>1.074568</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1">
-        <v>0.7858999999999999</v>
+        <v>2.62905</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1">
-        <v>0.8114389999999999</v>
+        <v>0.77817</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1">
-        <v>0.794666</v>
+        <v>0.67601</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1">
-        <v>0.84387</v>
+        <v>0.7977219999999999</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1">
-        <v>1.624256</v>
+        <v>0.45550199999999996</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1">
-        <v>2.921235</v>
+        <v>0.7709010000000001</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1">
-        <v>0.384147</v>
+        <v>0.465379</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1">
-        <v>0.610939</v>
+        <v>2.038558</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1">
-        <v>0.591981</v>
+        <v>0.716618</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1">
-        <v>0.42015800000000003</v>
+        <v>0.690156</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1">
-        <v>0.731205</v>
+        <v>0.795314</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1">
-        <v>1.1965599999999998</v>
+        <v>0.609296</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1">
-        <v>0.8540369999999999</v>
+        <v>0.7990029999999999</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1">
-        <v>0.428651</v>
+        <v>0.669094</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1">
-        <v>0.591703</v>
+        <v>0.611174</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1">
-        <v>1.247684</v>
+        <v>0.871963</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1">
-        <v>0.874001</v>
+        <v>0.712078</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1">
-        <v>0.9414650000000001</v>
+        <v>0.7167290000000001</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1">
-        <v>0.75717</v>
+        <v>0.892269</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1">
-        <v>3.826112</v>
+        <v>0.7331319999999999</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1">
-        <v>0.571442</v>
+        <v>0.617882</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1">
-        <v>1.0167430000000002</v>
+        <v>0.82544</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1">
-        <v>0.361017</v>
+        <v>0.511295</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1">
-        <v>1.37539</v>
+        <v>0.766791</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1">
-        <v>0.752866</v>
+        <v>0.807895</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1">
-        <v>1.342667</v>
+        <v>1.5670300000000001</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1">
-        <v>1.412434</v>
+        <v>0.779098</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1">
-        <v>0.891999</v>
+        <v>0.688314</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1">
-        <v>2.851525</v>
+        <v>1.2017799999999998</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1">
-        <v>1.8938309999999998</v>
+        <v>0.64141</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1">
-        <v>0.848255</v>
+        <v>0.604426</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1">
-        <v>0.57545</v>
+        <v>0.58938</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1">
-        <v>2.276854</v>
+        <v>1.179938</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1">
-        <v>0.6113820000000001</v>
+        <v>1.7670780000000001</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1">
-        <v>10.082927</v>
+        <v>0.6822739999999999</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1">
-        <v>0.654442</v>
+        <v>0.709132</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1">
-        <v>0.663434</v>
+        <v>0.411899</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1">
-        <v>0.435384</v>
+        <v>1.48854</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1">
-        <v>0.8297340000000001</v>
+        <v>0.749392</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1">
-        <v>1.224482</v>
+        <v>0.6369900000000001</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1">
-        <v>0.629259</v>
+        <v>0.8850060000000001</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1">
-        <v>0.8722890000000001</v>
+        <v>0.49819299999999994</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1">
-        <v>0.50647</v>
+        <v>0.8025260000000001</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1">
-        <v>1.0583470000000001</v>
+        <v>0.47318499999999997</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1">
-        <v>2.0853159999999997</v>
+        <v>2.401134</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1">
-        <v>1.1252250000000001</v>
+        <v>0.69421</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1">
-        <v>0.549559</v>
+        <v>0.358797</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1">
-        <v>1.7928</v>
+        <v>1.0235800000000002</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1">
-        <v>1.3307060000000002</v>
+        <v>0.8799800000000001</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1">
-        <v>0.6109260000000001</v>
+        <v>0.6547499999999999</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1">
-        <v>0.7349770000000001</v>
+        <v>0.785826</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1">
-        <v>0.845611</v>
+        <v>0.7773739999999999</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1">
-        <v>1.368747</v>
+        <v>2.1999799999999996</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1">
-        <v>0.808479</v>
+        <v>0.39394</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1">
-        <v>0.6629700000000001</v>
+        <v>0.811883</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1">
-        <v>0.6778420000000001</v>
+        <v>0.611024</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1">
-        <v>0.42652100000000004</v>
+        <v>1.158876</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1">
-        <v>0.668726</v>
+        <v>0.5191290000000001</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1">
-        <v>0.955253</v>
+        <v>0.665289</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1">
-        <v>0.91669</v>
+        <v>0.960907</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1">
-        <v>1.01855</v>
+        <v>0.430777</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1">
-        <v>1.673032</v>
+        <v>0.759521</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1">
-        <v>1.3797480000000002</v>
+        <v>0.550454</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1">
-        <v>1.905159</v>
+        <v>0.703718</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1">
-        <v>3.843129</v>
+        <v>0.895289</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1">
-        <v>0.841638</v>
+        <v>0.707887</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1">
-        <v>1.20026</v>
+        <v>0.82478</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1">
-        <v>0.974221</v>
+        <v>0.45424000000000003</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1">
-        <v>1.087078</v>
+        <v>0.733501</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1">
-        <v>1.0021909999999998</v>
+        <v>0.58489</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1">
-        <v>1.127958</v>
+        <v>0.743529</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1">
-        <v>0.748384</v>
+        <v>2.28956</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1">
-        <v>0.5772120000000001</v>
+        <v>0.834263</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1">
-        <v>0.543581</v>
+        <v>0.700172</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1">
-        <v>0.692256</v>
+        <v>0.656708</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1">
-        <v>0.6592669999999999</v>
+        <v>2.883112</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1">
-        <v>0.433719</v>
+        <v>0.671465</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1">
-        <v>1.680048</v>
+        <v>0.6969879999999999</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1">
-        <v>0.711058</v>
+        <v>1.04627</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1">
-        <v>0.711179</v>
+        <v>0.754144</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1">
-        <v>0.40869399999999995</v>
+        <v>0.72461</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1">
-        <v>0.8709279999999999</v>
+        <v>0.7419819999999999</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1">
-        <v>0.792652</v>
+        <v>0.558916</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1">
-        <v>0.878275</v>
+        <v>1.72584</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1">
-        <v>0.673994</v>
+        <v>0.467318</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1">
-        <v>0.65091</v>
+        <v>0.744133</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1">
-        <v>0.7094370000000001</v>
+        <v>0.498498</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1">
-        <v>0.8487</v>
+        <v>0.8266249999999999</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1">
-        <v>4.204473</v>
+        <v>0.7306860000000001</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1">
-        <v>0.873448</v>
+        <v>1.1488909999999999</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1">
-        <v>0.727441</v>
+        <v>1.312211</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1">
-        <v>2.3954660000000003</v>
+        <v>0.421935</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1">
-        <v>0.885658</v>
+        <v>0.661722</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1">
-        <v>3.603102</v>
+        <v>1.800203</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1">
-        <v>0.560073</v>
+        <v>0.762411</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1">
-        <v>0.912957</v>
+        <v>0.7623099999999999</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1">
-        <v>1.233442</v>
+        <v>1.146768</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1">
-        <v>1.121014</v>
+        <v>1.081151</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1">
-        <v>2.70438</v>
+        <v>0.49244000000000004</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1">
-        <v>0.9828020000000001</v>
+        <v>0.677615</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1">
-        <v>1.30473</v>
+        <v>0.843998</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1">
-        <v>0.65677</v>
+        <v>0.627165</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1">
-        <v>0.547572</v>
+        <v>0.82334</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1">
-        <v>0.445032</v>
+        <v>0.528889</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1">
-        <v>0.5164259999999999</v>
+        <v>2.135038</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1">
-        <v>0.825538</v>
+        <v>0.729707</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1">
-        <v>0.572997</v>
+        <v>0.678012</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1">
-        <v>0.644973</v>
+        <v>1.0345820000000001</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1">
-        <v>0.7375780000000001</v>
+        <v>0.824712</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1">
-        <v>0.37300300000000003</v>
+        <v>0.59426</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1">
-        <v>0.7645179999999999</v>
+        <v>0.895677</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1">
-        <v>0.70094</v>
+        <v>0.82708</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1">
-        <v>1.0968390000000001</v>
+        <v>0.518763</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1">
-        <v>0.407817</v>
+        <v>0.709653</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1">
-        <v>0.7800180000000001</v>
+        <v>0.462922</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1">
-        <v>0.776945</v>
+        <v>0.809212</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1">
-        <v>0.917331</v>
+        <v>0.614663</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1">
-        <v>0.724891</v>
+        <v>0.49813999999999997</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1">
-        <v>0.751099</v>
+        <v>2.325057</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1">
-        <v>0.825997</v>
+        <v>0.35834</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1">
-        <v>0.86626</v>
+        <v>0.889683</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1">
-        <v>0.7740940000000001</v>
+        <v>0.8013830000000001</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1">
-        <v>0.930767</v>
+        <v>0.82792</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1">
-        <v>0.423759</v>
+        <v>0.8289690000000001</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1">
-        <v>0.75541</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1">
-        <v>0.634433</v>
+        <v>1.2367000000000001</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1">
-        <v>0.418623</v>
+        <v>0.941037</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1">
-        <v>0.369782</v>
+        <v>0.582662</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1">
-        <v>0.758306</v>
+        <v>0.777848</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1">
-        <v>0.626155</v>
+        <v>0.682999</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1">
-        <v>0.682664</v>
+        <v>0.747963</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1">
-        <v>0.441243</v>
+        <v>2.212943</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1">
-        <v>0.46366</v>
+        <v>0.43389999999999995</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1">
-        <v>0.846624</v>
+        <v>0.73661</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1">
-        <v>0.648922</v>
+        <v>0.44802299999999995</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1">
-        <v>0.431554</v>
+        <v>0.696034</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1">
-        <v>0.7096589999999999</v>
+        <v>0.514575</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1">
-        <v>0.826205</v>
+        <v>0.6426850000000001</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1">
-        <v>0.620517</v>
+        <v>1.016915</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1">
-        <v>0.424667</v>
+        <v>0.427535</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1">
-        <v>0.46707</v>
+        <v>0.80508</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1">
-        <v>1.739746</v>
+        <v>0.576523</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1">
-        <v>3.7483239999999998</v>
+        <v>0.71714</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1">
-        <v>0.736715</v>
+        <v>0.67799</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1">
-        <v>0.59625</v>
+        <v>0.854636</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1">
-        <v>0.89092</v>
+        <v>1.986352</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1">
-        <v>1.184999</v>
+        <v>1.438244</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1">
-        <v>0.405758</v>
+        <v>0.918979</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1">
-        <v>0.499729</v>
+        <v>0.472139</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1">
-        <v>0.42663199999999996</v>
+        <v>2.394124</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1">
-        <v>0.986542</v>
+        <v>0.686388</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1">
-        <v>1.079682</v>
+        <v>0.346143</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1">
-        <v>0.38107</v>
+        <v>0.9907259999999999</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1">
-        <v>0.6264299999999999</v>
+        <v>0.448973</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1">
-        <v>0.896729</v>
+        <v>0.7597259999999999</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1">
-        <v>0.616397</v>
+        <v>0.81173</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1">
-        <v>0.592661</v>
+        <v>2.479362</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1">
-        <v>0.657175</v>
+        <v>0.634123</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1">
-        <v>0.893701</v>
+        <v>0.409827</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1">
-        <v>0.879968</v>
+        <v>1.0641800000000001</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1">
-        <v>0.505607</v>
+        <v>0.8997459999999999</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1">
-        <v>0.38549500000000003</v>
+        <v>0.439874</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1">
-        <v>0.767808</v>
+        <v>0.755775</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1">
-        <v>1.070211</v>
+        <v>0.658437</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1">
-        <v>0.602499</v>
+        <v>0.8459599999999999</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1">
-        <v>0.41503999999999996</v>
+        <v>0.367369</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1">
-        <v>0.466158</v>
+        <v>1.3529740000000001</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1">
-        <v>0.880153</v>
+        <v>1.0393659999999998</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1">
-        <v>0.690317</v>
+        <v>0.48884799999999995</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1">
-        <v>0.574486</v>
+        <v>0.66433</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1">
-        <v>14.202256</v>
+        <v>1.892954</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1">
-        <v>0.640912</v>
+        <v>0.724995</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1">
-        <v>1.327277</v>
+        <v>0.39212600000000003</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1">
-        <v>0.5634159999999999</v>
+        <v>1.065935</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1">
-        <v>1.004397</v>
+        <v>0.786267</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1">
-        <v>2.1831419999999997</v>
+        <v>0.7359</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1">
-        <v>0.373107</v>
+        <v>0.7698619999999999</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1">
-        <v>0.873417</v>
+        <v>1.3643399999999999</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1">
-        <v>7.717659</v>
+        <v>0.722503</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1">
-        <v>0.83141</v>
+        <v>0.407556</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1">
-        <v>0.5678960000000001</v>
+        <v>1.4584000000000001</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1">
-        <v>1.0395999999999999</v>
+        <v>1.680556</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1">
-        <v>0.6722440000000001</v>
+        <v>0.7083499999999999</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1">
-        <v>0.825704</v>
+        <v>0.6318330000000001</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1">
-        <v>0.448193</v>
+        <v>0.934517</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1">
-        <v>0.870988</v>
+        <v>1.124776</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1">
-        <v>0.882657</v>
+        <v>0.733087</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1">
-        <v>0.6735289999999999</v>
+        <v>0.7040879999999999</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1">
-        <v>0.383117</v>
+        <v>1.733428</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1">
-        <v>1.042804</v>
+        <v>0.7350720000000001</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1">
-        <v>0.942536</v>
+        <v>0.424968</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1">
-        <v>0.877712</v>
+        <v>0.526797</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1">
-        <v>0.549495</v>
+        <v>0.685164</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1">
-        <v>0.411677</v>
+        <v>0.585895</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1">
-        <v>0.8337330000000001</v>
+        <v>0.6675789999999999</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1">
-        <v>0.672224</v>
+        <v>0.6325540000000001</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1">
-        <v>0.486295</v>
+        <v>0.572951</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1">
-        <v>1.3476199999999998</v>
+        <v>0.847935</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1">
-        <v>0.415634</v>
+        <v>1.045099</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1">
-        <v>6.752801</v>
+        <v>0.579357</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1">
-        <v>1.599709</v>
+        <v>0.979133</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1">
-        <v>0.792713</v>
+        <v>1.712983</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1">
-        <v>0.547743</v>
+        <v>0.420686</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1">
-        <v>1.143367</v>
+        <v>0.771454</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1">
-        <v>1.315602</v>
+        <v>0.76852</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1">
-        <v>0.584186</v>
+        <v>2.348512</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1">
-        <v>0.422794</v>
+        <v>0.7598010000000001</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1">
-        <v>0.445635</v>
+        <v>0.6922</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1">
-        <v>0.638948</v>
+        <v>1.1786120000000002</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1">
-        <v>2.8678459999999997</v>
+        <v>1.055548</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1">
-        <v>0.7720239999999999</v>
+        <v>0.783014</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1">
-        <v>0.756056</v>
+        <v>0.6128680000000001</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1">
-        <v>1.100045</v>
+        <v>1.014518</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1">
-        <v>0.39592400000000005</v>
+        <v>1.0447849999999999</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1">
-        <v>0.529885</v>
+        <v>0.6945709999999999</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1">
-        <v>0.99103</v>
+        <v>0.9582269999999999</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1">
-        <v>0.519865</v>
+        <v>1.614886</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1">
-        <v>0.574732</v>
+        <v>0.808818</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1">
-        <v>0.497293</v>
+        <v>0.682205</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1">
-        <v>0.9038149999999999</v>
+        <v>1.225951</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1">
-        <v>1.802893</v>
+        <v>0.850446</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1">
-        <v>0.6459830000000001</v>
+        <v>0.599645</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1">
-        <v>0.93443</v>
+        <v>0.80539</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1">
-        <v>0.858943</v>
+        <v>0.898562</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1">
-        <v>0.546573</v>
+        <v>1.124636</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1">
-        <v>0.571846</v>
+        <v>0.6503979999999999</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1">
-        <v>0.6205660000000001</v>
+        <v>0.617181</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1">
-        <v>0.420061</v>
+        <v>1.196293</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1">
-        <v>2.414656</v>
+        <v>0.680676</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1">
-        <v>1.308972</v>
+        <v>0.647647</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1">
-        <v>1.216855</v>
+        <v>0.65729</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1">
-        <v>0.631285</v>
+        <v>0.716463</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1">
-        <v>1.0066140000000001</v>
+        <v>0.6960799999999999</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1">
-        <v>1.09454</v>
+        <v>0.553329</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1">
-        <v>1.095422</v>
+        <v>1.5866</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1">
-        <v>0.419624</v>
+        <v>0.779965</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1">
-        <v>0.6619430000000001</v>
+        <v>0.717881</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1">
-        <v>1.0380820000000002</v>
+        <v>0.450111</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1">
-        <v>0.583933</v>
+        <v>0.79384</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1">
-        <v>1.133421</v>
+        <v>0.370454</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1">
-        <v>0.553928</v>
+        <v>1.657848</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1">
-        <v>0.921189</v>
+        <v>1.888938</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1">
-        <v>0.910727</v>
+        <v>0.518127</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1">
-        <v>0.5615079999999999</v>
+        <v>0.687887</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1">
-        <v>0.474815</v>
+        <v>1.408528</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1">
-        <v>3.3725500000000004</v>
+        <v>2.951774</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1">
-        <v>0.9370799999999999</v>
+        <v>0.742156</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1">
-        <v>2.843779</v>
+        <v>0.698777</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1">
-        <v>0.774843</v>
+        <v>0.813603</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1">
-        <v>0.836468</v>
+        <v>0.5449670000000001</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1">
-        <v>2.908261</v>
+        <v>0.7436250000000001</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1">
-        <v>0.586901</v>
+        <v>0.552436</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1">
-        <v>2.130326</v>
+        <v>2.029354</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1">
-        <v>0.7403139999999999</v>
+        <v>0.76836</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1">
-        <v>1.727059</v>
+        <v>0.581439</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1">
-        <v>0.6671</v>
+        <v>0.91616</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1">
-        <v>0.55091</v>
+        <v>0.5477299999999999</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1">
-        <v>0.527082</v>
+        <v>0.7695230000000001</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1">
-        <v>0.6146879999999999</v>
+        <v>0.441033</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1">
-        <v>2.6843510000000004</v>
+        <v>0.6363850000000001</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1">
-        <v>0.7828149999999999</v>
+        <v>2.0730269999999997</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1">
-        <v>0.55033</v>
+        <v>0.778186</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1">
-        <v>0.7917799999999999</v>
+        <v>0.64979</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1">
-        <v>0.987078</v>
+        <v>0.730703</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1">
-        <v>0.620677</v>
+        <v>0.5774320000000001</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1">
-        <v>0.382476</v>
+        <v>2.29337</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1">
-        <v>0.5239039999999999</v>
+        <v>0.584678</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1">
-        <v>1.637335</v>
+        <v>0.7046380000000001</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1">
-        <v>10.736135</v>
+        <v>0.7115049999999999</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1">
-        <v>0.646064</v>
+        <v>0.540974</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1">
-        <v>1.157815</v>
+        <v>0.8775809999999999</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1">
-        <v>0.8579380000000001</v>
+        <v>0.746978</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1">
-        <v>0.460673</v>
+        <v>0.812462</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1">
-        <v>0.39361</v>
+        <v>2.396735</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1">
-        <v>0.49512500000000004</v>
+        <v>0.694658</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1">
-        <v>1.355791</v>
+        <v>0.674112</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1">
-        <v>3.688374</v>
+        <v>0.75937</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1">
-        <v>0.5682210000000001</v>
+        <v>1.040677</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1">
-        <v>0.73505</v>
+        <v>0.692243</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1">
-        <v>1.009303</v>
+        <v>0.457158</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1">
-        <v>0.57996</v>
+        <v>1.015787</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1">
-        <v>0.424001</v>
+        <v>1.8657249999999999</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1">
-        <v>0.745651</v>
+        <v>0.6920919999999999</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1">
-        <v>1.186513</v>
+        <v>0.775981</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1">
-        <v>3.463448</v>
+        <v>0.851651</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1">
-        <v>0.788494</v>
+        <v>1.801505</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1">
-        <v>0.477885</v>
+        <v>0.7241329999999999</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1">
-        <v>1.306721</v>
+        <v>0.391524</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1">
-        <v>0.5456289999999999</v>
+        <v>1.4146</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1">
-        <v>0.547334</v>
+        <v>1.486891</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="1">
-        <v>0.812484</v>
+        <v>0.446042</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1">
-        <v>0.734444</v>
+        <v>0.819835</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1">
-        <v>0.657262</v>
+        <v>0.721203</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="1">
-        <v>0.373358</v>
+        <v>1.1594170000000001</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="1">
-        <v>0.833809</v>
+        <v>0.587637</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="1">
-        <v>4.8465679999999995</v>
+        <v>0.823837</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="1">
-        <v>0.509131</v>
+        <v>0.767108</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="1">
-        <v>0.644962</v>
+        <v>0.47979700000000003</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="1">
-        <v>0.7353620000000001</v>
+        <v>0.844496</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="1">
-        <v>0.896748</v>
+        <v>0.6907979999999999</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="1">
-        <v>0.378212</v>
+        <v>2.506462</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="1">
-        <v>0.670432</v>
+        <v>0.691773</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="1">
-        <v>0.7841359999999999</v>
+        <v>0.455562</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="1">
-        <v>0.949486</v>
+        <v>0.801368</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="1">
-        <v>0.49414</v>
+        <v>0.42334700000000003</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="1">
-        <v>1.47767</v>
+        <v>0.819818</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="1">
-        <v>0.821835</v>
+        <v>0.649445</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="1">
-        <v>1.067414</v>
+        <v>0.718603</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="1">
-        <v>0.5450200000000001</v>
+        <v>1.963253</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="1">
-        <v>0.385056</v>
+        <v>0.732791</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="1">
-        <v>0.761292</v>
+        <v>0.687675</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="1">
-        <v>0.9770639999999999</v>
+        <v>0.6745720000000001</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="1">
-        <v>1.3596599999999999</v>
+        <v>1.083907</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="1">
-        <v>0.44041399999999997</v>
+        <v>0.781258</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="1">
-        <v>0.7991600000000001</v>
+        <v>0.466306</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1">
-        <v>0.501936</v>
+        <v>1.2316429999999998</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1">
-        <v>0.94544</v>
+        <v>2.017677</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="1">
-        <v>0.8609600000000001</v>
+        <v>0.522177</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="1">
-        <v>0.6753939999999999</v>
+        <v>0.661563</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="1">
-        <v>0.5846319999999999</v>
+        <v>0.544817</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="1">
-        <v>3.258804</v>
+        <v>2.455368</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="1">
-        <v>0.6596110000000001</v>
+        <v>0.610855</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="1">
-        <v>2.233634</v>
+        <v>0.775931</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="1">
-        <v>0.396137</v>
+        <v>1.072122</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="1">
-        <v>1.6480620000000001</v>
+        <v>0.773203</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="1">
-        <v>0.85188</v>
+        <v>0.562156</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="1">
-        <v>0.485112</v>
+        <v>0.807552</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="1">
-        <v>0.5618599999999999</v>
+        <v>0.680878</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="1">
-        <v>0.690284</v>
+        <v>1.003965</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="1">
-        <v>0.723101</v>
+        <v>0.423589</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="1">
-        <v>0.662575</v>
+        <v>1.041723</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="1">
-        <v>0.6396120000000001</v>
+        <v>1.030416</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1">
-        <v>0.449308</v>
+        <v>0.695943</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="1">
-        <v>0.8285750000000001</v>
+        <v>0.766815</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="1">
-        <v>4.002497</v>
+        <v>0.526297</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="1">
-        <v>0.818305</v>
+        <v>2.51307</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="1">
-        <v>0.431907</v>
+        <v>0.6596500000000001</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="1">
-        <v>0.69237</v>
+        <v>0.663685</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1">
-        <v>0.479735</v>
+        <v>0.851668</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1">
-        <v>0.7691520000000001</v>
+        <v>0.745977</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="1">
-        <v>0.785594</v>
+        <v>0.663257</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="1">
-        <v>0.8230540000000001</v>
+        <v>0.682628</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="1">
-        <v>0.623285</v>
+        <v>1.954622</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="1">
-        <v>0.497795</v>
+        <v>0.714415</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="1">
-        <v>0.49553800000000003</v>
+        <v>0.8689220000000001</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="1">
-        <v>2.6763630000000003</v>
+        <v>0.6801189999999999</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="1">
-        <v>0.600348</v>
+        <v>0.956338</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="1">
-        <v>1.2873999999999999</v>
+        <v>0.62201</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="1">
-        <v>5.6100330000000005</v>
+        <v>0.365033</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="1">
-        <v>3.370306</v>
+        <v>1.560012</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="1">
-        <v>0.46115700000000004</v>
+        <v>0.466632</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1">
-        <v>0.611001</v>
+        <v>0.776416</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="1">
-        <v>0.617083</v>
+        <v>0.5223800000000001</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1">
-        <v>1.249487</v>
+        <v>1.083648</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="1">
-        <v>1.581926</v>
+        <v>0.41993</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="1">
-        <v>0.665462</v>
+        <v>0.678728</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="1">
-        <v>1.565313</v>
+        <v>0.669475</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1">
-        <v>1.616271</v>
+        <v>0.509372</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="1">
-        <v>3.7763269999999998</v>
+        <v>0.76556</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="1">
-        <v>0.56768</v>
+        <v>0.40518</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1">
-        <v>0.663976</v>
+        <v>1.15655</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="1">
-        <v>0.829489</v>
+        <v>1.0656299999999999</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="1">
-        <v>0.6208020000000001</v>
+        <v>0.627675</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="1">
-        <v>3.105007</v>
+        <v>0.9127850000000001</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="1">
-        <v>0.389822</v>
+        <v>0.535783</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="1">
-        <v>0.451588</v>
+        <v>1.858417</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="1">
-        <v>0.635195</v>
+        <v>0.656755</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="1">
-        <v>0.5237539999999999</v>
+        <v>0.735089</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="1">
-        <v>0.809034</v>
+        <v>1.483079</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="1">
-        <v>0.443724</v>
+        <v>0.615627</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="1">
-        <v>0.933076</v>
+        <v>0.762917</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="1">
-        <v>0.403332</v>
+        <v>0.918925</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="1">
-        <v>1.1065669999999999</v>
+        <v>1.262796</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="1">
-        <v>1.1435600000000001</v>
+        <v>0.5706100000000001</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="1">
-        <v>1.1246889999999998</v>
+        <v>0.712695</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="1">
-        <v>0.752733</v>
+        <v>1.0622349999999998</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="1">
-        <v>0.54005</v>
+        <v>0.505871</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="1">
-        <v>0.630828</v>
+        <v>0.7324029999999999</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="1">
-        <v>0.870826</v>
+        <v>0.48872399999999994</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="1">
-        <v>4.436692</v>
+        <v>1.939367</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="1">
-        <v>0.722587</v>
+        <v>0.6338999999999999</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="1">
-        <v>0.633779</v>
+        <v>0.499043</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="1">
-        <v>3.006699</v>
+        <v>0.7558349999999999</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="1">
-        <v>0.690985</v>
+        <v>0.5562199999999999</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="1">
-        <v>0.729893</v>
+        <v>0.794598</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="1">
-        <v>0.593059</v>
+        <v>0.9733339999999999</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="1">
-        <v>0.7836</v>
+        <v>1.877635</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="1">
-        <v>0.8884430000000001</v>
+        <v>0.734223</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="1">
-        <v>0.570834</v>
+        <v>0.62119</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="1">
-        <v>2.416067</v>
+        <v>1.0492279999999998</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="1">
-        <v>0.864092</v>
+        <v>0.606629</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="1">
-        <v>1.044352</v>
+        <v>0.733593</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="1">
-        <v>4.030493</v>
+        <v>0.52896</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="1">
-        <v>0.41643</v>
+        <v>2.020298</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="1">
-        <v>0.637348</v>
+        <v>1.05307</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="1">
-        <v>0.833692</v>
+        <v>0.625915</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="1">
-        <v>0.608553</v>
+        <v>0.922057</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="1">
-        <v>0.511857</v>
+        <v>0.584221</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="1">
-        <v>0.612812</v>
+        <v>0.704086</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="1">
-        <v>0.902727</v>
+        <v>0.421153</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="1">
-        <v>1.1584830000000002</v>
+        <v>2.6816969999999998</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="1">
-        <v>8.323815999999999</v>
+        <v>0.768844</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="1">
-        <v>0.7684840000000001</v>
+        <v>0.69709</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="1">
-        <v>0.867458</v>
+        <v>0.94275</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="1">
-        <v>0.85485</v>
+        <v>0.423078</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="1">
-        <v>1.237553</v>
+        <v>0.728327</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="1">
-        <v>0.770073</v>
+        <v>0.42103300000000005</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="1">
-        <v>0.368425</v>
+        <v>0.8276009999999999</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="1">
-        <v>0.385233</v>
+        <v>0.7313919999999999</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="1">
-        <v>0.866833</v>
+        <v>0.591747</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="1">
-        <v>0.948306</v>
+        <v>0.950838</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="1">
-        <v>4.622053</v>
+        <v>0.41698199999999996</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="1">
-        <v>0.790054</v>
+        <v>0.762819</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="1">
-        <v>0.7415259999999999</v>
+        <v>0.565183</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="1">
-        <v>0.6023489999999999</v>
+        <v>2.326517</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="1">
-        <v>0.40413</v>
+        <v>0.6946819999999999</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="1">
-        <v>0.659933</v>
+        <v>0.654563</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="1">
-        <v>0.604988</v>
+        <v>1.041538</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="1">
-        <v>0.5275839999999999</v>
+        <v>0.62993</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="1">
-        <v>0.804722</v>
+        <v>0.6518700000000001</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="1">
-        <v>0.666478</v>
+        <v>0.38795399999999997</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="1">
-        <v>0.49323599999999995</v>
+        <v>2.34327</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="1">
-        <v>1.051452</v>
+        <v>0.6930769999999999</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="1">
-        <v>0.725275</v>
+        <v>0.676808</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="1">
-        <v>0.438567</v>
+        <v>1.035908</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="1">
-        <v>0.679271</v>
+        <v>0.459091</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="1">
-        <v>0.8347019999999999</v>
+        <v>0.824587</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="1">
-        <v>0.80572</v>
+        <v>0.684605</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="1">
-        <v>0.587632</v>
+        <v>0.7931400000000001</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="1">
-        <v>1.54699</v>
+        <v>0.853083</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="1">
-        <v>1.109745</v>
+        <v>0.62939</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="1">
-        <v>0.408603</v>
+        <v>1.068835</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="1">
-        <v>1.107689</v>
+        <v>0.696392</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="1">
-        <v>0.402581</v>
+        <v>2.038846</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="1">
-        <v>0.80566</v>
+        <v>0.607055</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="1">
-        <v>0.55218</v>
+        <v>0.419821</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="1">
-        <v>11.733718000000001</v>
+        <v>0.757299</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="1">
-        <v>0.437387</v>
+        <v>0.791722</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="1">
-        <v>0.42567499999999997</v>
+        <v>0.805706</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="1">
-        <v>0.511004</v>
+        <v>0.545032</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="1">
-        <v>0.395679</v>
+        <v>1.070222</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="1">
-        <v>0.482789</v>
+        <v>0.573845</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="1">
-        <v>29.00421</v>
+        <v>1.052843</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="1">
-        <v>0.546603</v>
+        <v>0.992972</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="1">
-        <v>0.558033</v>
+        <v>0.635636</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="1">
-        <v>0.668423</v>
+        <v>0.719446</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="1">
-        <v>0.44544700000000004</v>
+        <v>0.41510800000000003</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="1">
-        <v>1.332768</v>
+        <v>0.819273</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="1">
-        <v>0.426703</v>
+        <v>0.384883</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="1">
-        <v>0.723376</v>
+        <v>0.959615</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="1">
-        <v>1.6490179999999999</v>
+        <v>1.0158479999999999</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="1">
-        <v>4.434112</v>
+        <v>0.6256579999999999</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="1">
-        <v>1.09409</v>
+        <v>0.5987180000000001</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="1">
-        <v>2.4469600000000002</v>
+        <v>0.630728</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="1">
-        <v>0.960723</v>
+        <v>0.645557</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="1">
-        <v>1.2595589999999999</v>
+        <v>0.629897</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="1">
-        <v>3.387389</v>
+        <v>0.846438</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="1">
-        <v>0.645277</v>
+        <v>0.694878</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="1">
-        <v>0.449073</v>
+        <v>0.5943609999999999</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="1">
-        <v>0.557124</v>
+        <v>0.41004399999999996</v>
       </c>
     </row>
   </sheetData>
